--- a/code/java-web-demo/src/test/resources/挖掘机.20170928.xlsx
+++ b/code/java-web-demo/src/test/resources/挖掘机.20170928.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="现金账" sheetId="29" r:id="rId1"/>
@@ -18,35 +18,35 @@
     <sheet name="四化建装车" sheetId="41" r:id="rId9"/>
     <sheet name="四化建台班" sheetId="40" r:id="rId10"/>
     <sheet name="南湖公园" sheetId="23" r:id="rId11"/>
-    <sheet name="南湖公园装车" sheetId="43" r:id="rId12"/>
-    <sheet name="南湖公园台班" sheetId="42" r:id="rId13"/>
-    <sheet name="未入账" sheetId="30" r:id="rId14"/>
-    <sheet name="201709" sheetId="32" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="34" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="44" r:id="rId12"/>
+    <sheet name="南湖公园装车" sheetId="43" r:id="rId13"/>
+    <sheet name="南湖公园台班" sheetId="42" r:id="rId14"/>
+    <sheet name="未入账" sheetId="30" r:id="rId15"/>
+    <sheet name="201709" sheetId="32" r:id="rId16"/>
     <sheet name="中秋节" sheetId="37" r:id="rId17"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'201709'!$A$1:$I$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'201709'!$A$1:$I$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">步行街!$A$1:$M$176</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">步行街台班!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">步行街装车!$A$1:$D$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">南湖公园!$A$1:$K$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">南湖公园台班!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">南湖公园装车!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">南湖公园台班!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">南湖公园装车!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">七里山!$A$1:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">四化建!$A$1:$I$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">四化建台班!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">四化建装车!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">维修保养!$A$1:$L$64</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">未入账!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">未入账!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">现金账!$A$1:$L$100</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="152">
   <si>
     <t>装车</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -627,11 +627,31 @@
     <t>预支</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>台班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>零头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -853,7 +873,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -928,23 +948,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -980,23 +983,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5142,9 +5128,121 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3">
+        <v>13.5</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4">
+        <v>711</v>
+      </c>
+      <c r="C4">
+        <v>35</v>
+      </c>
+      <c r="D4">
+        <f>B4*C4</f>
+        <v>24885</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>B5*C5</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6">
+        <v>10210</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <f>B6*C6</f>
+        <v>-10210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <f>B7*C7</f>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8">
+        <v>6700</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <f>B8*C8</f>
+        <v>-6700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <f>SUM(D3:D11)</f>
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
@@ -5314,7 +5412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -5422,7 +5520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -5711,7 +5809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -6205,93 +6303,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
-        <v>42890</v>
-      </c>
-      <c r="B3" s="3">
-        <f>H3*I3</f>
-        <v>3680</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="3">
-        <f>步行街!G67+B3-C3</f>
-        <v>39758</v>
-      </c>
-      <c r="H3" s="3">
-        <v>115</v>
-      </c>
-      <c r="I3" s="3">
-        <v>32</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <v>42890</v>
-      </c>
-      <c r="B4" s="3">
-        <f>H4*I4</f>
-        <v>168</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="3">
-        <f>G3+B4-C4</f>
-        <v>39926</v>
-      </c>
-      <c r="H4" s="3">
-        <v>6</v>
-      </c>
-      <c r="I4" s="3">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E7"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6299,7 +6316,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>141</v>
       </c>
@@ -6313,7 +6330,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>137</v>
       </c>
@@ -6328,7 +6345,7 @@
         <v>160288</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>138</v>
       </c>
@@ -6343,7 +6360,7 @@
         <v>11872</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>139</v>
       </c>
@@ -6358,7 +6375,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>145</v>
       </c>
@@ -6368,25 +6385,37 @@
         <v>-96700</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
+        <f>C6*D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <f>SUM(E2:E6)</f>
+        <v>109460</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
-        <f>SUM(E2:E6)</f>
-        <v>99460</v>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="1">
+        <f>20670*1.4</f>
+        <v>28937.999999999996</v>
       </c>
     </row>
   </sheetData>
